--- a/data/test/Книга1.xlsx
+++ b/data/test/Книга1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\churilin\ex\develop\analize_data\data\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Doc\exchange\practice\2019\analize_data\data\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -340,7 +340,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -388,20 +388,20 @@
       <c r="F3">
         <v>-1</v>
       </c>
-      <c r="G3">
-        <f>E3*F3</f>
-        <v>-140</v>
+      <c r="H3">
+        <f>E3-E1</f>
+        <v>0</v>
       </c>
       <c r="I3">
-        <f>E3-E1</f>
+        <f>H3</f>
         <v>0</v>
       </c>
       <c r="J3">
-        <f>I3</f>
+        <f>I3*F3</f>
         <v>0</v>
       </c>
       <c r="K3">
-        <f>J3*F3</f>
+        <f>K2+J3</f>
         <v>0</v>
       </c>
     </row>
@@ -421,8 +421,8 @@
         <f t="shared" ref="D4:D25" si="2">C4*F4</f>
         <v>0</v>
       </c>
-      <c r="G4">
-        <f t="shared" ref="G4:G21" si="3">E4*F4</f>
+      <c r="K4">
+        <f t="shared" ref="K4:K25" si="3">K3+J4</f>
         <v>0</v>
       </c>
     </row>
@@ -442,7 +442,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G5">
+      <c r="K5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -463,7 +463,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G6">
+      <c r="K6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -484,7 +484,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="K7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -505,7 +505,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G8">
+      <c r="K8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -526,7 +526,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G9">
+      <c r="K9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -547,7 +547,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G10">
+      <c r="K10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -568,7 +568,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G11">
+      <c r="K11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -595,20 +595,20 @@
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="3"/>
-        <v>109</v>
-      </c>
-      <c r="I12">
+      <c r="H12">
         <f>E12-E3</f>
         <v>-31</v>
       </c>
+      <c r="I12">
+        <f>I3+H12</f>
+        <v>-31</v>
+      </c>
       <c r="J12">
-        <f>J3+I12</f>
+        <f>F12*I12</f>
         <v>-31</v>
       </c>
       <c r="K12">
-        <f>F12*J12</f>
+        <f t="shared" si="3"/>
         <v>-31</v>
       </c>
     </row>
@@ -628,9 +628,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>-31</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -649,9 +649,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>-31</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -670,9 +670,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>-31</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -697,21 +697,21 @@
       <c r="F16">
         <v>1</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="3"/>
-        <v>148</v>
-      </c>
-      <c r="I16">
+      <c r="H16">
         <f>E16-E12</f>
         <v>39</v>
       </c>
+      <c r="I16">
+        <f>H16+I12</f>
+        <v>8</v>
+      </c>
       <c r="J16">
-        <f>I16+J12</f>
+        <f>F16*I16</f>
         <v>8</v>
       </c>
       <c r="K16">
-        <f>F16*J16</f>
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>-23</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -730,9 +730,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G17">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>-23</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -751,9 +751,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>-23</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -772,9 +772,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>-23</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -793,9 +793,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G20">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>-23</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -820,21 +820,21 @@
       <c r="F21">
         <v>-1</v>
       </c>
-      <c r="G21">
-        <f t="shared" si="3"/>
-        <v>-108</v>
-      </c>
-      <c r="I21">
+      <c r="H21">
         <f>E21-E16</f>
         <v>-40</v>
       </c>
+      <c r="I21">
+        <f>H21+I16</f>
+        <v>-32</v>
+      </c>
       <c r="J21">
-        <f>I21+J16</f>
-        <v>-32</v>
+        <f>F21*I21</f>
+        <v>32</v>
       </c>
       <c r="K21">
-        <f>F21*J21</f>
-        <v>32</v>
+        <f t="shared" si="3"/>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -853,6 +853,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="K22">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
@@ -870,6 +874,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="K23">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
@@ -887,6 +895,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
@@ -903,6 +915,10 @@
       <c r="D25">
         <f t="shared" si="2"/>
         <v>0</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="3"/>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/test/Книга1.xlsx
+++ b/data/test/Книга1.xlsx
@@ -21,6 +21,20 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>price_delta</t>
+  </si>
+  <si>
+    <t>lots</t>
+  </si>
+  <si>
+    <t>lots_balance</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -142,7 +156,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$L$2:$L$31</c:f>
+              <c:f>Лист1!$L$3:$L$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -250,11 +264,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="447149992"/>
-        <c:axId val="447150384"/>
+        <c:axId val="365106488"/>
+        <c:axId val="365106096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="447149992"/>
+        <c:axId val="365106488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -296,7 +310,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447150384"/>
+        <c:crossAx val="365106096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -304,7 +318,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="447150384"/>
+        <c:axId val="365106096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -355,7 +369,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447149992"/>
+        <c:crossAx val="365106488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -964,16 +978,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1258,10 +1272,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L31"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1269,110 +1283,92 @@
     <col min="4" max="4" width="2.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>150</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <f>F1+D2</f>
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <f>B2*F2</f>
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <f>B2*D2</f>
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <f>J1+I2</f>
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <f>IF(G2=0,J2,G2)</f>
-        <v>0</v>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B3">
-        <f>A3-A2</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F31" si="0">F2+D3</f>
+        <f>F2+D3</f>
         <v>0</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G31" si="1">B3*F3</f>
+        <f>B3*F3</f>
         <v>0</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I31" si="2">A3*D3</f>
+        <f t="shared" ref="I3:I32" si="0">A3*D3</f>
         <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J31" si="3">J2+I3</f>
+        <f>J2+I3</f>
         <v>0</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L31" si="4">IF(G3=0,J3,G3)</f>
+        <f>IF(G3=0,J3,G3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B31" si="5">A4-A3</f>
-        <v>-12</v>
+        <f>A4-A3</f>
+        <v>-2</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F4:F32" si="1">F3+D4</f>
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G4:G32" si="2">B4*F4</f>
         <v>0</v>
       </c>
       <c r="I4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J4:J32" si="3">J3+I4</f>
         <v>0</v>
       </c>
       <c r="L4">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="L4:L32" si="4">IF(G4=0,J4,G4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B5">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" ref="B5:B32" si="5">A5-A4</f>
+        <v>-12</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J5">
@@ -1386,22 +1382,22 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="B6">
         <f t="shared" si="5"/>
-        <v>-13</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J6">
@@ -1415,55 +1411,55 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="B7">
         <f t="shared" si="5"/>
-        <v>-23</v>
-      </c>
-      <c r="D7">
-        <v>-1</v>
+        <v>-13</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>-1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
-        <v>23</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="I7">
-        <f t="shared" si="2"/>
-        <v>-102</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
-        <v>-102</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="B8">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>-23</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
-        <v>-33</v>
+        <f t="shared" si="2"/>
+        <v>23</v>
       </c>
       <c r="I8">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-102</v>
       </c>
       <c r="J8">
         <f t="shared" si="3"/>
@@ -1471,27 +1467,27 @@
       </c>
       <c r="L8">
         <f t="shared" si="4"/>
-        <v>-33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B9">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
-        <v>-6</v>
+        <f t="shared" si="2"/>
+        <v>-33</v>
       </c>
       <c r="I9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J9">
@@ -1500,27 +1496,27 @@
       </c>
       <c r="L9">
         <f t="shared" si="4"/>
-        <v>-6</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="B10">
         <f t="shared" si="5"/>
-        <v>-26</v>
+        <v>6</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
-        <v>26</v>
+        <f t="shared" si="2"/>
+        <v>-6</v>
       </c>
       <c r="I10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J10">
@@ -1529,27 +1525,27 @@
       </c>
       <c r="L10">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="B11">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>-26</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
-        <v>-30</v>
+        <f t="shared" si="2"/>
+        <v>26</v>
       </c>
       <c r="I11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J11">
@@ -1558,60 +1554,60 @@
       </c>
       <c r="L11">
         <f t="shared" si="4"/>
-        <v>-30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="B12">
         <f t="shared" si="5"/>
-        <v>-22</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>-1</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-30</v>
       </c>
       <c r="I12">
-        <f t="shared" si="2"/>
-        <v>123</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="J12">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>-102</v>
       </c>
       <c r="L12">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="B13">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>-22</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>123</v>
       </c>
       <c r="J13">
         <f t="shared" si="3"/>
@@ -1624,22 +1620,22 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="B14">
         <f t="shared" si="5"/>
-        <v>-19</v>
+        <v>24</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J14">
@@ -1653,22 +1649,22 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B15">
         <f t="shared" si="5"/>
-        <v>-7</v>
+        <v>-19</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J15">
@@ -1682,22 +1678,22 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B16">
         <f t="shared" si="5"/>
-        <v>-11</v>
+        <v>-7</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J16">
@@ -1711,22 +1707,22 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="B17">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>-11</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J17">
@@ -1740,22 +1736,22 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="B18">
         <f t="shared" si="5"/>
-        <v>-27</v>
+        <v>20</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J18">
@@ -1769,55 +1765,55 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="B19">
         <f t="shared" si="5"/>
-        <v>35</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
+        <v>-27</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
-        <v>35</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="I19">
-        <f t="shared" si="2"/>
-        <v>138</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="J19">
         <f t="shared" si="3"/>
-        <v>159</v>
+        <v>21</v>
       </c>
       <c r="L19">
         <f t="shared" si="4"/>
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="B20">
         <f t="shared" si="5"/>
-        <v>-19</v>
+        <v>35</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
-        <v>-19</v>
+        <f t="shared" si="2"/>
+        <v>35</v>
       </c>
       <c r="I20">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>138</v>
       </c>
       <c r="J20">
         <f t="shared" si="3"/>
@@ -1825,27 +1821,27 @@
       </c>
       <c r="L20">
         <f t="shared" si="4"/>
-        <v>-19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B21">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>-19</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>-19</v>
       </c>
       <c r="I21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J21">
@@ -1854,27 +1850,27 @@
       </c>
       <c r="L21">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B22">
         <f t="shared" si="5"/>
-        <v>-12</v>
+        <v>9</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
-        <v>-12</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="I22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J22">
@@ -1883,27 +1879,27 @@
       </c>
       <c r="L22">
         <f t="shared" si="4"/>
-        <v>-12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B23">
         <f t="shared" si="5"/>
-        <v>-3</v>
+        <v>-12</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
-        <v>-3</v>
+        <f t="shared" si="2"/>
+        <v>-12</v>
       </c>
       <c r="I23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J23">
@@ -1912,60 +1908,60 @@
       </c>
       <c r="L23">
         <f t="shared" si="4"/>
-        <v>-3</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B24">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="D24">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-3</v>
       </c>
       <c r="I24">
-        <f t="shared" si="2"/>
-        <v>-119</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="J24">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>159</v>
       </c>
       <c r="L24">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B25">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>-1</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I25">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-119</v>
       </c>
       <c r="J25">
         <f t="shared" si="3"/>
@@ -1978,22 +1974,22 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="B26">
         <f t="shared" si="5"/>
-        <v>-19</v>
+        <v>11</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J26">
@@ -2007,22 +2003,22 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="B27">
         <f t="shared" si="5"/>
-        <v>23</v>
+        <v>-19</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J27">
@@ -2036,22 +2032,22 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="B28">
         <f t="shared" si="5"/>
-        <v>-29</v>
+        <v>23</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J28">
@@ -2065,22 +2061,22 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B29">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>-29</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J29">
@@ -2094,22 +2090,22 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="B30">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J30">
@@ -2123,29 +2119,58 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
+        <v>127</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>105</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <f t="shared" si="5"/>
         <v>-22</v>
       </c>
-      <c r="F31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J31">
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J32">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="L31">
+      <c r="L32">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
